--- a/aggregated_output/MIAMI_aggregated.xlsx
+++ b/aggregated_output/MIAMI_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to complete tasks and her comprehensive information processing style, she would recognize this as a step toward achieving her overall use case.</t>
+Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that finding Assignment 7 is a necessary step toward submitting it.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to complete tasks and her comprehensive information processing style, she would recognize this as a step toward achieving her overall use case.</t>
+Why: The page clearly displays "Assignment 7" on the right side under the "Coming Up" section. This aligns with Abi's motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page to find relevant information. The presence of "Assignment 7" directly indicates that this is a step toward achieving her overall use case.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side, which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and Abi is motivated to complete the task. Additionally, the clear labeling helps Abi process the information comprehensively.</t>
+Why: The page clearly shows a button labeled "Assignment 7" on the right side, which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and Abi is motivated to complete her task. Additionally, the clear labeling helps Abi process the information comprehensively and understand that clicking this button will likely lead her to Assignment 7.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side, which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and Abi is motivated to complete the task. Additionally, the clear labeling helps Abi process the information comprehensively.</t>
+Why: The subgoal of finding Assignment 7 is clearly aligned with Abi's overall goal of submitting Assignment 7. The page prominently displays an "Assignment 7" button on the right side, which is likely to catch Abi's attention. This aligns with Abi's motivation to complete the task and their comprehensive information processing style, as the button is clearly labeled and directly related to the subgoal.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to complete the task and their comprehensive information processing style, they would recognize this as a step toward achieving the overall use case.</t>
+Why: The page clearly shows a button labeled "Assignment 7" on the right side under the "Coming Up" section. This is directly related to Abi's goal of submitting Assignment 7. Given Abi's motivation to complete tasks and her comprehensive information processing style, she would recognize that finding Assignment 7 is a necessary step toward submitting it.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her tasks and her comprehensive information processing style. The page provides a straightforward and clear indication of what to do next, making it easy for Abi to understand that clicking the link will help her find Assignment 7.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her tasks and her comprehensive information processing style. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to Assignment 7.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her tasks and her comprehensive information processing style. The page provides a straightforward and clear indication of where to click to find Assignment 7, making it easy for Abi to know what to do at this step.</t>
+Why: The "Assignment 7" link is clearly labeled under the "Coming Up" section, making it straightforward for Abi to identify and click on it. This aligns with her motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page to find relevant information. The page provides a clear indication of what the link is for, making it easy for Abi to take this action.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently placed under the "Coming Up" section, making it easy for Abi to identify and click. This aligns with Abi's motivation to find and submit Assignment 7. The clear labeling and straightforward placement also support Abi's comprehensive information processing style, as it provides a direct and unambiguous path to the desired action.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently placed under the "Coming Up" section, making it easy for Abi to identify and understand that clicking it will likely lead her to Assignment 7. This aligns with her motivation to find and submit the assignment. The clear labeling and placement also support her comprehensive information processing style, as it provides a straightforward path to follow without requiring additional steps or guesswork.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to find and submit Assignment 7. The clear labeling and placement make it easy for Abi to understand that clicking this link is the next step toward achieving her goal. Additionally, the straightforward presentation of information supports Abi's comprehensive information processing style.</t>
+Why: The "Assignment 7" link under the "Coming Up" section is clearly labeled and prominently displayed on the page. This makes it straightforward for Abi to understand that clicking this link is the next step toward finding Assignment 7. The clear labeling aligns with Abi's motivation to complete the task and their comprehensive information processing style, as it provides a direct and obvious path to the desired subgoal.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to find and submit Assignment 7. Additionally, the clear labeling and placement of the link make it easy for Abi to understand what to do next, fitting well with their comprehensive information processing style.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This aligns with Abi's motivation to complete her task and her comprehensive information processing style. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to Assignment 7.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7. However, the page is cluttered and not well-organized, which can be overwhelming. The link to the external site and the instruction to load the assignment in a new browser window might confuse Abi, given her low computer self-efficacy. Additionally, the page does not provide a clear, comprehensive overview of what needs to be done next, which does not align with Abi's comprehensive information processing style. Therefore, Abi might not feel confident that she is making progress toward her goal and may not get all the information she needs.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and an option to load the assignment in a new window. However, the page layout is cluttered and not very user-friendly. The instructions are not immediately clear, and the presence of multiple links and options might overwhelm Abi. Given her comprehensive information processing style, she might find it difficult to determine if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to follow the external link or load the assignment in a new window without clear guidance.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and an option to load the assignment in a new window. However, the page layout is cluttered and not very user-friendly. The instructions are not immediately clear, and there is a mix of different types of information (e.g., links, buttons, and text) that might overwhelm Abi. Given her comprehensive information processing style, Abi might find it difficult to determine if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to click on external links or load new windows without clear guidance.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and an option to load the assignment in a new window. However, the page is cluttered and not well-organized, which might overwhelm Abi. Additionally, the need to load the assignment in a new browser window or navigate to an external site could be confusing and intimidating for someone with low computer self-efficacy. Abi might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, but it is not immediately clear how to submit the assignment. The page includes a link to an external site and a button to load the assignment in a new window, which might be confusing for Abi. Given Abi's low computer self-efficacy, the presence of multiple options without clear instructions could be overwhelming. Additionally, the page does not provide comprehensive information on how to proceed with the submission, which does not align with Abi's information processing style.</t>
+Why: While Abi will know she is on the Assignment 7 page, the page is cluttered and not well-organized, which can be overwhelming. The instructions are not immediately clear, and there are multiple links and buttons (e.g., "Load Assignment 7 in a new window," "Links to an external site") that might confuse Abi. Given her low computer self-efficacy, she might not feel confident about what to do next. Additionally, the page does not provide a clear, comprehensive set of instructions on how to proceed with submitting the assignment, which does not align with her information processing style.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is on the right page for Assignment 7, the page is cluttered and not well-organized. The information is not presented in a clear, structured manner, which can be overwhelming for Abi, who prefers comprehensive information processing. Additionally, the presence of multiple links and instructions to load the assignment in a new browser window might confuse Abi, given her low computer self-efficacy. This could make her uncertain about whether she has all the information needed to proceed.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and a button to load the assignment in a new window. However, the page layout is cluttered and not well-organized, which might overwhelm Abi. The instructions are not immediately clear, and the presence of multiple links and buttons without clear guidance can be confusing. Given Abi's low computer self-efficacy and preference for comprehensive information processing, Abi might not feel confident that they are making progress toward their goal or have all the information needed to proceed.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and a button to load the assignment in a new window. However, the page layout is cluttered and not well-organized, which might overwhelm Abi. Additionally, the presence of multiple links and the instruction to load the assignment in a new window could be confusing for someone with low computer self-efficacy. Abi might not be confident that they are making progress toward their goal due to the unclear and overwhelming presentation of information.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides a link to an external site and a button to load the assignment in a new browser window. This might be confusing for Abi, as it is not immediately clear what the next step should be. The page does not provide comprehensive information directly; instead, it requires Abi to take additional steps (clicking a link or button) without clear guidance on what to expect. Given Abi's low computer self-efficacy and preference for comprehensive information, this could hinder her confidence and understanding of whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a link to an external site (GitHub) without providing sufficient context or instructions on what to expect after clicking the link. Given Abi's low computer self-efficacy, she might be hesitant to click on a link that leads to an external site without clear guidance. Additionally, the page does not align with Abi's comprehensive information processing style and process-oriented learning style, as it lacks detailed instructions or a step-by-step process. This could make Abi unsure about what to do next and whether clicking the link is the correct action to take.</t>
+Why: The page provides a link to an external site (GitHub) without much context or guidance on what to expect after clicking the link. Given Abi's comprehensive information processing style, she might find the lack of detailed instructions confusing. Additionally, her low computer self-efficacy might make her hesitant to click on an external link without clear information on what it will lead to. Abi's preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a link to an external site (GitHub) without providing clear instructions on what to expect after clicking the link. Given Abi's comprehensive information processing style, she might hesitate to click on the link without knowing what it will lead to. Additionally, her low computer self-efficacy might make her uncomfortable with navigating to an external site, especially if she is not familiar with GitHub. Abi's preference for process-oriented learning means she would benefit from more explicit guidance or a step-by-step process, which is not provided on this page.</t>
+Why: The page provides a link to an external site (GitHub) without much context or explanation about what Abi should expect or do once she clicks the link. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might feel uncertain about clicking the link without more information. Additionally, the page's cluttered layout and the presence of multiple options (e.g., loading the assignment in a new window) could be confusing and overwhelming, making it difficult for Abi to confidently take this action.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a link to an external site (GitHub) without clear instructions on what to expect or what to do after clicking the link. Given Abi's low computer self-efficacy, she might feel uncertain or hesitant about clicking a link that leads to an external site without knowing what to expect. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance could make Abi unsure about taking this action.</t>
+Why: The page contains a link to an external site (GitHub) without providing clear instructions on what to expect after clicking the link. Given Abi's low computer self-efficacy, she might feel uncertain about clicking a link that leads to an external site, especially without knowing what to do next. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance can make her hesitant to proceed.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains multiple links and instructions, which can be confusing for Abi. The link to GitHub is not clearly explained, and there is no context provided about what will happen after clicking it. Given Abi's low computer self-efficacy, she might be hesitant to click on a link without knowing exactly what it will do. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here. This lack of clarity and guidance can make it difficult for Abi to confidently take this action.</t>
+Why: The page provides a link to an external site (GitHub) without much context or explanation about what Abi should expect to find or do there. Given Abi's low computer self-efficacy and preference for comprehensive information processing, this lack of clear guidance can be confusing and intimidating. Additionally, Abi's process-oriented learning style means they prefer step-by-step instructions, which are not provided here. This might make Abi hesitant to click the link, as they are unsure if it will help them achieve their subgoal of finding Assignment 7.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a link to an external site (GitHub) without providing clear instructions on what to expect after clicking the link. Given Abi's low computer self-efficacy, they might be hesitant to click on a link that leads to an external site without knowing what will happen next. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance could make Abi unsure about taking this action.</t>
+Why: The page provides a link to an external site (GitHub) without clear instructions on what to expect after clicking the link. Given Abi's low computer self-efficacy, she might be hesitant to click on an external link without knowing what it will lead to. Additionally, Abi prefers process-oriented learning and clear step-by-step instructions, which are not provided here. This lack of guidance could make her unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide comprehensive information on what to do next or how to proceed with the assignment. Given Abi's comprehensive information processing style, she may feel uncertain about the next steps. Additionally, her low computer self-efficacy might make her hesitant to navigate GitHub without clear instructions. Therefore, Abi might not feel confident that she is making progress toward her goal and may not have all the information she needs.</t>
+Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's comprehensive information processing style, she might find the lack of detailed guidance confusing. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress toward her goal. The page does not provide all the information she needs to confidently move forward with submitting Assignment 7.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's comprehensive information processing style, she might feel uncertain about whether she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to navigate further without explicit guidance. Abi's preference for process-oriented learning means she would benefit from more detailed instructions or a step-by-step guide, which is not provided on this page.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal and whether she has all the information she needs. The lack of clear, step-by-step instructions could leave her feeling confused and unsure about the next steps.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms the assignment has been accepted and provides a link to the assignment repository. However, the page does not provide clear instructions on what to do next or how to submit the assignment. Given Abi's comprehensive information processing style, she may not feel confident that she has all the necessary information to proceed. Additionally, Abi's low computer self-efficacy may make her hesitant to navigate further without clear guidance, leaving her unsure if she is making progress toward her goal.</t>
+Why: While the page indicates that Abi has accepted the assignment and provides a link to the assignment repository, it does not provide clear instructions on what to do next. Abi might not feel confident that she is making progress toward her goal of submitting Assignment 7, as the page lacks comprehensive guidance on the subsequent steps. Given her low computer self-efficacy, she might feel uncertain about navigating the repository and understanding how to proceed from there. The page does not align with her need for clear, step-by-step instructions, making it difficult for her to feel assured that she is on the right track.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page indicates that Abi has accepted the assignment and provides a link to the assignment repository, it does not clearly explain the next steps or provide comprehensive information on what to do next. Abi might not feel confident that she has all the information needed to proceed, given her low computer self-efficacy. The page lacks detailed instructions or guidance, which can make Abi uncertain about whether she is making progress toward her goal.</t>
+Why: After clicking the GitHub link, Abi lands on a page that confirms the assignment has been accepted and provides a link to the assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with the assignment. Given Abi's preference for comprehensive information processing and low computer self-efficacy, the lack of detailed guidance and next steps can be confusing and may leave Abi uncertain about whether they are making progress toward their goal. Additionally, the page layout is sparse and may not provide enough context for Abi to feel confident that they have all the information needed.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms the assignment has been accepted and provides a link to the assignment repository. However, the page does not provide comprehensive information about what to do next or how to proceed with the assignment. Given Abi's comprehensive information processing style, they might feel uncertain about the next steps. Additionally, Abi's low computer self-efficacy might make them hesitant to proceed without clear, step-by-step instructions, leaving them unsure if they are making progress toward their goal.</t>
+Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to the assignment repository. However, the page does not provide comprehensive information about what to do next or how to proceed with submitting the assignment. Given Abi's preference for comprehensive information and her low computer self-efficacy, she might not feel confident that she is making progress toward her goal or know what steps to take next. The page lacks clear, step-by-step instructions that Abi relies on to feel assured she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy means she might not feel confident in figuring out this step on her own without clear guidance. Therefore, Abi might not think of going to Gradescope as a step toward achieving her overall use case.</t>
+Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy might make her hesitant to navigate to a different platform without clear guidance. The page does not provide enough information for Abi to think of going to Gradescope as a step toward submitting Assignment 7.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy might make her hesitant to navigate to a different platform without clear guidance. The lack of direct information or links related to Gradescope on this page means Abi might not think of this as a step toward achieving her overall use case.</t>
+Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, she might not feel confident in figuring out this step on her own without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi would think of going to Gradescope as a step toward achieving her goal.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit Assignment 7. Additionally, Abi's low computer self-efficacy means she might not feel confident in figuring out this step on her own without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi would think of going to Gradescope as a step toward submitting her assignment.</t>
+Why: The page does not provide any indication or instructions that Abi needs to go to Gradescope to submit Assignment 7. There is no mention of Gradescope on the page, and without clear guidance, Abi might not think of this as a necessary step toward submitting her assignment. Given her comprehensive information processing style, Abi would need explicit instructions to understand that going to Gradescope is part of the process. Additionally, her low computer self-efficacy means she is less likely to take actions that are not clearly indicated or familiar to her.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Abi, who prefers comprehensive information processing, would not have enough information from this page to know that she needs to go to Gradescope to submit Assignment 7. Additionally, given her low computer self-efficacy, Abi might not feel confident in making the assumption to navigate to Gradescope without explicit instructions or guidance.</t>
+Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that going to Gradescope is a necessary step. Additionally, Abi's low computer self-efficacy means they are less likely to make assumptions or take actions without clear guidance. Without any mention of Gradescope on this page, Abi might not think of it as a step toward submitting Assignment 7.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that going to Gradescope is a necessary step. Additionally, Abi's low computer self-efficacy means they might not feel confident in making assumptions or taking steps without clear guidance. Therefore, Abi might not think of going to Gradescope as a step toward submitting Assignment 7 based on the information available on this page.</t>
+Why: The page does not provide any direct indication or link to Gradescope for submitting the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, Abi might not feel confident in making the connection on her own without explicit guidance. Therefore, she might not think of going to Gradescope as a step toward submitting Assignment 7 based on the information provided on this page.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is the correct step toward submitting her assignment. Additionally, her low computer self-efficacy means she might not feel confident in taking this action without clear guidance. Therefore, the page is not good enough for Abi to know what to do at this step.</t>
+Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is the correct step toward submitting her assignment. Additionally, her low computer self-efficacy might make her hesitant to click the link without knowing exactly what it will do. The page does not provide enough information for Abi to confidently take this action.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. Given Abi's motivation to complete her tasks and her comprehensive information processing style, she would recognize this as a relevant step toward achieving her overall use case. The page provides a straightforward and clear indication of where to click to find Assignment 7, making it easy for Abi to know what to do at this step.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy, she might not feel confident in clicking the link without knowing exactly what it will do. The lack of explicit direction and context on this page makes it unlikely that Abi will know what to do at this step.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is a step toward submitting her assignment on Gradescope. Additionally, Abi's low computer self-efficacy means she might not feel confident in figuring out this step on her own without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi would know to click this link to proceed to Gradescope.</t>
+Why: The page does not provide any indication that clicking the "Assignment 7" link will lead Abi to Gradescope for submission. There is no mention of Gradescope or submission instructions on this page. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that this action is necessary for submitting her assignment. Additionally, her low computer self-efficacy means she is less likely to take actions that are not clearly indicated or familiar to her. Without clear guidance, Abi might not know that clicking the "Assignment 7" link is the correct step toward submitting her assignment.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's preference for comprehensive information processing, she might not feel confident that clicking this link will help her achieve her goal of submitting the assignment. Additionally, Abi's low computer self-efficacy means she might be hesitant to click on a link without clear instructions or confirmation that it will take her to the correct place for submission.</t>
+Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that clicking this link is a step toward submitting the assignment. Additionally, Abi's low computer self-efficacy means they are less likely to take actions without clear guidance. Without any mention of Gradescope or submission instructions on this page, Abi might not know that clicking the "Assignment 7" link is the correct action to take.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead to Gradescope or the submission page. Given Abi's low computer self-efficacy, they might be hesitant to click on a link without knowing exactly where it will lead. Additionally, Abi prefers process-oriented learning with clear instructions, which are not provided here. Therefore, Abi might not feel confident in taking this action without more explicit guidance.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Assignment 7" link under the "Coming Up" section is clearly labeled and prominently displayed. Given Abi's motivation to complete her task and her comprehensive information processing style, she would recognize that clicking on the "Assignment 7" link is a necessary step toward submitting the assignment. The page provides a straightforward and unambiguous action for Abi to take, making it clear that clicking the link will lead her to the relevant assignment details.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and a link to GitHub. However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy means she might not feel confident in figuring out the next steps on her own. Therefore, Abi might not feel that she is making progress toward her goal and may not have all the information she needs.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, her low computer self-efficacy might make her uncertain about whether she is making progress toward her goal. The page does not provide all the information she needs to confidently move forward with submitting Assignment 7 on Gradescope.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7, including a link to an external site (GitHub) and an option to load the assignment in a new window. However, the page does not provide clear instructions on how to submit the assignment on Gradescope. Given Abi's comprehensive information processing style, she might feel uncertain about whether she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to navigate further without explicit guidance. The lack of direct information or links related to Gradescope on this page means Abi might not know that she did the right thing and is making progress toward her goal.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal and whether she has all the information she needs. The lack of clear direction and context on this page makes it unlikely that Abi will know she is on the right track.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to GitHub. However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, Abi's low computer self-efficacy means she might feel uncertain about what to do next without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi will know she is making progress toward her goal of submitting the assignment on Gradescope.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about the assignment but does not clearly indicate that she needs to go to Gradescope to submit it. The page includes a link to GitHub and a button to load the assignment in a new window, but there is no mention of Gradescope or submission instructions. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that she needs to go to Gradescope for submission. Additionally, her low computer self-efficacy means she might feel uncertain about what to do next without clear guidance, making it difficult for her to know she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about the assignment but does not clearly indicate that she needs to go to Gradescope to submit it. The page includes a link to GitHub and instructions to load the assignment in a new browser window, but there is no mention of Gradescope. Given Abi's preference for comprehensive information processing, she might not feel confident that she is making progress toward her goal of submitting the assignment. Additionally, Abi's low computer self-efficacy means she might be uncertain about what to do next without explicit instructions or guidance.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to understand that they need to go to Gradescope to submit the assignment. Additionally, Abi's low computer self-efficacy means they are less likely to feel confident that they are making progress toward their goal without clear guidance. The lack of information about submission on this page can leave Abi uncertain about the next steps.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to GitHub. However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, they would need clear and explicit instructions to feel confident they are making progress toward their goal. Additionally, Abi's low computer self-efficacy might make them hesitant to proceed without clear guidance on the next steps. Therefore, Abi might not know they are making progress toward submitting Assignment 7 and might not get all the information they need.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides a link to an external site (GitHub) and a button to load the assignment in a new browser window. However, the page does not provide clear instructions or information about submitting the assignment on Gradescope. Given Abi's comprehensive information processing style, she would need explicit guidance on the steps to submit the assignment. Additionally, with her low computer self-efficacy, Abi might not feel confident that she is making progress toward her goal without clear, step-by-step instructions. The page lacks the necessary information to assure Abi that she is on the right track and making progress toward submitting her assignment.</t>
         </is>
       </c>
     </row>
@@ -733,36 +733,36 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Load Assignment 7 in a new window" button does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this button is the correct step toward submitting her assignment. Additionally, her low computer self-efficacy means she might not feel confident in taking this action without clear guidance. Therefore, the page is not good enough for Abi to know what to do at this step.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not explicitly mention Gradescope or provide clear instructions on what will happen after clicking the button. Given Abi's comprehensive information processing style, she would need more detailed guidance to understand that this action will lead her to Gradescope for submission. Additionally, her low computer self-efficacy might make her hesitant to click the button without knowing exactly what it will do. Abi's preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a button labeled "Load Assignment 7 in a new window," but it does not provide clear instructions on what will happen after clicking the button or how it relates to submitting the assignment on Gradescope. Given Abi's comprehensive information processing style, she might hesitate to click the button without knowing what to expect. Additionally, her low computer self-efficacy might make her uncomfortable with navigating to a new window without explicit guidance. Abi's preference for process-oriented learning means she would benefit from more detailed instructions or a step-by-step guide, which is not provided on this page.</t>
+Why: The "Load Assignment 7 in a new window" button does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this button is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy and preference for process-oriented learning, she might feel uncertain about clicking the button without knowing exactly what it will do. The lack of explicit direction and context on this page makes it unlikely that Abi will know what to do at this step.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not clearly indicate that this action will lead to Gradescope for submission. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that clicking this button is a step toward submitting her assignment on Gradescope. Additionally, Abi's low computer self-efficacy means she might feel uncertain about what will happen after clicking the button, making her hesitant to proceed without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi will know what to do at this step.</t>
+Why: The button labeled "Load Assignment 7 in a new window" does not provide clear information that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that this action is necessary for submitting her assignment. Additionally, her low computer self-efficacy means she might feel uncertain about clicking a button that does not clearly indicate its purpose or the next steps. Without clear guidance, Abi might not know that clicking this button is the correct step toward submitting her assignment.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page does not provide clear instructions or context about what will happen after clicking the "Load Assignment 7 in a new window" button. Abi, who prefers comprehensive information processing, might not feel confident that this action will lead her to the correct place for submitting the assignment. Additionally, given her low computer self-efficacy, Abi might be hesitant to click on a button without knowing exactly what it will do, especially since there is no mention of Gradescope or submission instructions on this page.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page provides a "Load Assignment 7 in a new window" button, but it does not clearly indicate that this action will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, they would need explicit instructions to understand that this is the correct step toward submitting the assignment. Additionally, Abi's low computer self-efficacy and preference for process-oriented learning mean they are less likely to take actions without clear guidance. The lack of specific information about Gradescope or submission on this page can leave Abi uncertain about whether clicking this button is the right action to take.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The button labeled "Load Assignment 7 in a new window" does not provide clear information about what will happen next or if it will lead to the submission page on Gradescope. Given Abi's low computer self-efficacy, they might be hesitant to click on a button without knowing exactly what it will do. Additionally, Abi prefers process-oriented learning with clear instructions, which are not provided here. Therefore, Abi might not feel confident in taking this action without more explicit guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides a button labeled "Load Assignment 7 in a new window," but it does not clearly indicate that this action will lead to the submission process on Gradescope. Given Abi's comprehensive information processing style, she would need explicit instructions to understand that clicking this button is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy, Abi might be hesitant to click the button without knowing exactly what will happen next. The lack of clear guidance and information on this page could make Abi unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -771,35 +771,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page is well-organized and clearly shows the due date and submission status for Project 7. This aligns with Abi's motivation to complete her tasks and her comprehensive information processing style, as the page provides all the necessary information in a clear and structured manner. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs to submit Assignment 7.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page is well-organized and clearly shows the assignment details, including the due date and submission status. Given Abi's motivation to complete her tasks and her comprehensive information processing style, she will recognize that she is on the right platform (Gradescope) and making progress toward submitting her assignment. The page provides all the necessary information for her to proceed with the submission.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page provides clear information about the assignment, including its due date and submission status. Given Abi's motivation to complete her tasks and her comprehensive information processing style, she will recognize that she is on the right page and making progress toward her goal. The page is well-organized and provides all the necessary information for Abi to proceed with submitting her assignment.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." This page provides clear information about the assignment, including its due date and submission status. Given Abi's motivation to submit Assignment 7 and her comprehensive information processing style, she will recognize that she is on the right platform (Gradescope) and making progress toward her goal. The page is well-organized and provides the necessary information for her to proceed with the submission.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page provides clear information about the assignment, including its due date and submission status. This aligns with Abi's motivation to submit Assignment 7 and supports her comprehensive information processing style by providing all necessary details in an organized manner. Abi will know she is making progress toward her goal and has the information needed to proceed with the submission.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which clearly lists "Project 7" along with its due date and submission status. This page provides a clear indication that she is in the right place to submit her assignment. The information is organized and relevant, aligning with Abi's comprehensive information processing style. The clear labeling and structured layout help Abi understand that she is making progress toward her goal of submitting Assignment 7.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which clearly lists "Project 7" along with its due date and submission status. This page provides a clear indication that Abi is in the right place to submit her assignment, and the structured layout helps her understand that she is making progress toward her goal. The information is presented in a comprehensive manner, which aligns with Abi's information processing style, and the clear labeling of assignments helps her feel confident that she has all the information needed to proceed.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." The page is well-organized and clearly shows the assignment details, including the due date and submission status. This aligns with Abi's motivation to submit the assignment and their comprehensive information processing style, as the page provides all the necessary information in a clear and structured manner. Abi will know they are making progress toward their goal and have all the information needed to proceed with the submission.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including Project 7. The page is well-organized and clearly shows the due date and submission status for Project 7. This aligns with Abi's motivation to submit Assignment 7 and provides comprehensive information, fitting well with their information processing style. Abi will know they are making progress toward their goal and have all the information they need to proceed with the submission.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." The page provides clear information about the assignment, including its due date and submission status. Given Abi's motivation to complete her task and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward submitting her assignment. The page provides the necessary information for Abi to proceed with the submission, aligning with her need for comprehensive information.</t>
         </is>
       </c>
     </row>
